--- a/dataFormat/format_ctkm.xlsx
+++ b/dataFormat/format_ctkm.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Luckynumber\dataFormat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="CTKM" sheetId="7" r:id="rId1"/>
@@ -161,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,7 +619,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +726,7 @@
         <v>6476</v>
       </c>
       <c r="D4" s="5">
-        <v>2406</v>
+        <v>6476</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -757,7 +752,7 @@
         <v>2737</v>
       </c>
       <c r="D5" s="5">
-        <v>2406</v>
+        <v>2737</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -783,7 +778,7 @@
         <v>4210</v>
       </c>
       <c r="D6" s="5">
-        <v>2406</v>
+        <v>4210</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -809,7 +804,7 @@
         <v>4200</v>
       </c>
       <c r="D7" s="5">
-        <v>2406</v>
+        <v>4200</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -835,7 +830,7 @@
         <v>1108</v>
       </c>
       <c r="D8" s="5">
-        <v>2406</v>
+        <v>1108</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -861,7 +856,7 @@
         <v>2090</v>
       </c>
       <c r="D9" s="5">
-        <v>2406</v>
+        <v>2090</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -887,7 +882,7 @@
         <v>3089</v>
       </c>
       <c r="D10" s="5">
-        <v>2406</v>
+        <v>3089</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>14</v>
@@ -913,7 +908,7 @@
         <v>7408</v>
       </c>
       <c r="D11" s="5">
-        <v>2406</v>
+        <v>7408</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -939,7 +934,7 @@
         <v>7618</v>
       </c>
       <c r="D12" s="5">
-        <v>2406</v>
+        <v>7618</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -965,7 +960,7 @@
         <v>1742</v>
       </c>
       <c r="D13" s="5">
-        <v>2406</v>
+        <v>1742</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -991,7 +986,7 @@
         <v>6442</v>
       </c>
       <c r="D14" s="5">
-        <v>2406</v>
+        <v>6442</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -1017,7 +1012,7 @@
         <v>4862</v>
       </c>
       <c r="D15" s="5">
-        <v>2406</v>
+        <v>4862</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -1042,8 +1037,8 @@
       <c r="C16" s="3">
         <v>7784</v>
       </c>
-      <c r="D16" s="5">
-        <v>2406</v>
+      <c r="D16" s="3">
+        <v>7784</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
@@ -1069,7 +1064,7 @@
         <v>7791</v>
       </c>
       <c r="D17" s="5">
-        <v>2406</v>
+        <v>7791</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
@@ -1094,8 +1089,8 @@
       <c r="C18" s="3">
         <v>7783</v>
       </c>
-      <c r="D18" s="5">
-        <v>2406</v>
+      <c r="D18" s="3">
+        <v>7783</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>33</v>
@@ -1120,8 +1115,8 @@
       <c r="C19" s="3">
         <v>7785</v>
       </c>
-      <c r="D19" s="5">
-        <v>2406</v>
+      <c r="D19" s="3">
+        <v>7785</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>34</v>
@@ -1146,8 +1141,8 @@
       <c r="C20" s="3">
         <v>1903</v>
       </c>
-      <c r="D20" s="5">
-        <v>2406</v>
+      <c r="D20" s="3">
+        <v>1903</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -1172,8 +1167,8 @@
       <c r="C21" s="3">
         <v>1902</v>
       </c>
-      <c r="D21" s="5">
-        <v>2406</v>
+      <c r="D21" s="3">
+        <v>1902</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>23</v>
@@ -1198,8 +1193,8 @@
       <c r="C22" s="3">
         <v>2736</v>
       </c>
-      <c r="D22" s="5">
-        <v>2406</v>
+      <c r="D22" s="3">
+        <v>2736</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>35</v>
@@ -1224,8 +1219,8 @@
       <c r="C23" s="3">
         <v>2736</v>
       </c>
-      <c r="D23" s="5">
-        <v>2406</v>
+      <c r="D23" s="3">
+        <v>2736</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>35</v>
@@ -1254,7 +1249,7 @@
         <v>2789</v>
       </c>
       <c r="D24" s="5">
-        <v>2406</v>
+        <v>2789</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>36</v>
@@ -1282,8 +1277,8 @@
       <c r="C25" s="3">
         <v>2824</v>
       </c>
-      <c r="D25" s="5">
-        <v>2406</v>
+      <c r="D25" s="3">
+        <v>2824</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>37</v>
